--- a/1_Result_Tables/4_ifoCAST_evaluations_last_rep_since_2021/ifoCAst_error_tables_last_rep_latest_since_2021.xlsx
+++ b/1_Result_Tables/4_ifoCAST_evaluations_last_rep_since_2021/ifoCAst_error_tables_last_rep_latest_since_2021.xlsx
@@ -423,22 +423,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.1047997773705991</v>
+        <v>0.1136922373902997</v>
       </c>
       <c r="C2">
-        <v>0.6172371654033436</v>
+        <v>0.5976608816434473</v>
       </c>
       <c r="D2">
-        <v>0.5997608502747027</v>
+        <v>0.5710810818331241</v>
       </c>
       <c r="E2">
-        <v>0.7744422833721715</v>
+        <v>0.7556990683024057</v>
       </c>
       <c r="F2">
-        <v>0.7909339245451458</v>
+        <v>0.7687573175481709</v>
       </c>
       <c r="G2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
